--- a/paper/comparison/444-optimizers-small_times.xlsx
+++ b/paper/comparison/444-optimizers-small_times.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,19 +465,19 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001918097999999997</v>
+        <v>0.0008587176247965545</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001832224</v>
+        <v>0.0008191841572988778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001834892000000004</v>
+        <v>0.0008127240592148155</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001739309999999983</v>
+        <v>0.0008044350170530378</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001652620000000025</v>
+        <v>0.000795587458414957</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>0.5210526315789473</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002456677999999983</v>
+        <v>0.0008890425867866725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002392703999999988</v>
+        <v>0.0009139408147893846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002379080000000004</v>
+        <v>0.0008892766572535038</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002403155999999997</v>
+        <v>0.0008925232372712344</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002241724000000009</v>
+        <v>0.0008691856160294264</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>0.5421052631578948</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001846131999999989</v>
+        <v>0.0008989574969746172</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001928875999999997</v>
+        <v>0.0008930309338029474</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001851228000000011</v>
+        <v>0.0008859559171833098</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001792993999999992</v>
+        <v>0.0008780341560486704</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001724835999999992</v>
+        <v>0.0008674507960677146</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>0.5631578947368421</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002231084000000001</v>
+        <v>0.0009778658160939813</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003424141999999999</v>
+        <v>0.001496022450737655</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002467037999999993</v>
+        <v>0.001094391660299152</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002589493999999979</v>
+        <v>0.001178397517651319</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002516944000000021</v>
+        <v>0.001194966617040336</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>0.5842105263157895</v>
       </c>
       <c r="B6" t="n">
-        <v>0.002083668000000038</v>
+        <v>0.00103778250515461</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002898418</v>
+        <v>0.001435880903154611</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002545151999999993</v>
+        <v>0.001279298438457772</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002571999999999992</v>
+        <v>0.001293018357828259</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002376913999999996</v>
+        <v>0.001207875141408295</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>0.6052631578947368</v>
       </c>
       <c r="B7" t="n">
-        <v>0.002393029999999992</v>
+        <v>0.001204697580542415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005098730000000016</v>
+        <v>0.002428577457321808</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004674567999999994</v>
+        <v>0.002190599164459854</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005016199999999982</v>
+        <v>0.002324121620040387</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004165833999999986</v>
+        <v>0.002037034998647868</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>0.6263157894736842</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002695864000000014</v>
+        <v>0.00136602159938775</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005067075999999991</v>
+        <v>0.002477004234679043</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004644378000000002</v>
+        <v>0.002253872461151332</v>
       </c>
       <c r="E8" t="n">
-        <v>0.005057073999999982</v>
+        <v>0.002447911577764899</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004044027999999997</v>
+        <v>0.002020059159258381</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +605,19 @@
         <v>0.6473684210526316</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002928924000000022</v>
+        <v>0.001451916682999581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005968975999999992</v>
+        <v>0.002890664961887523</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005795958000000013</v>
+        <v>0.002784756656037644</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006074104000000009</v>
+        <v>0.002933411573758349</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005635395999999982</v>
+        <v>0.002723246577661485</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         <v>0.6684210526315789</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008033768000000011</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01203342200000001</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009121010000000011</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.009990514000000016</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008752385999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>0.6894736842105263</v>
       </c>
       <c r="B11" t="n">
-        <v>0.004057848979591825</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01590521224489795</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01494228163265305</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01673362857142856</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01435135102040817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="B12" t="n">
-        <v>0.004740212500000003</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02833162653061228</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01952142708333332</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01990924693877553</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02179148775510204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>0.7315789473684211</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00755216521739125</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05345249795918369</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03344175306122451</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04537250000000002</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02429451914893617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>0.7526315789473684</v>
       </c>
       <c r="B14" t="n">
-        <v>0.009494678571428605</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06004091489361706</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06479951702127666</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0530903617021276</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03775999555555543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>0.7736842105263158</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0126783769230771</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07874472500000004</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08444358222222227</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06083650697674396</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05300416511627909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>0.7947368421052632</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02204466857142839</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1003156238095234</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08959446190476142</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4353434738095237</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1056237650000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>0.8157894736842105</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0455030878787878</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1765856763157901</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1148458815789472</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3175561282051274</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1218550805555557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>0.8368421052631578</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01976535769230756</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2847388500000003</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1793321433333337</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1454689862068962</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1823997275862078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +805,19 @@
         <v>0.8578947368421053</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03420133600000003</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5040012266666659</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191231757142856</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3847017250000005</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2597134640000022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>0.8789473684210527</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02324535625000131</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5187738761904728</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2256280285714289</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4796932611111117</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7484150875000064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>0.9</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0262762500000008</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5339744153846091</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2582675000000029</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8992827416666623</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3833776100000016</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
